--- a/Estatistica/ProjSemestal2/T2estatistics.xlsx
+++ b/Estatistica/ProjSemestal2/T2estatistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a179f925bf44a31/Área de Trabalho/Projetos/Estatistica/ProjSemestal2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aorus360B\Desktop\ReposGithub\Projetos\Estatistica\ProjSemestal2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C35BBE71-2376-426C-A05C-3920F02549FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA2E9E0-9EE1-4FB8-921D-B284E72DF49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33525" yWindow="-3435" windowWidth="17280" windowHeight="8880" xr2:uid="{D987EEE1-D96A-46A8-953C-1A18B6E85363}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D987EEE1-D96A-46A8-953C-1A18B6E85363}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>x</t>
   </si>
@@ -47,15 +47,6 @@
     <t>x*f</t>
   </si>
   <si>
-    <t>x**2*f</t>
-  </si>
-  <si>
-    <t>|x</t>
-  </si>
-  <si>
-    <t>s**2</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -68,15 +59,6 @@
     <t>IC-</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>|p</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -86,17 +68,55 @@
     <t>n</t>
   </si>
   <si>
-    <t>s x z</t>
-  </si>
-  <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>s²</t>
+  </si>
+  <si>
+    <t>x²*f</t>
+  </si>
+  <si>
+    <t>x̅</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+  </si>
+  <si>
+    <t>s * z</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>erro/2</t>
+  </si>
+  <si>
+    <t>s (erro padrão)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +131,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,18 +165,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9D3939"/>
+      <color rgb="FFBD4B4B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -160,6 +193,630 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>378783</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>417334</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5228EE8-3492-BF9F-44E7-CF9866B99BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600611" y="3735484"/>
+          <a:ext cx="4590844" cy="1064051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>578642</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36045</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Texto&#10;&#10;Descrição gerada automaticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF94FA73-B18D-29E4-EC90-8DCA63202F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3614736" y="1378742"/>
+          <a:ext cx="2162175" cy="704215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596503</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>484744</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3" descr="Uma imagem contendo Forma&#10;&#10;Descrição gerada automaticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F135EC-F8A6-F506-430F-8D45C91F5694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8490347" y="3805237"/>
+          <a:ext cx="1709896" cy="650875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1190</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>110411</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4" descr="Uma imagem contendo Texto&#10;&#10;Descrição gerada automaticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6168876C-E04B-374C-AF79-B74059EE4EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8502253" y="1828800"/>
+          <a:ext cx="1930877" cy="607060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>598605</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>79335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475424</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>49569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Seta: para a Esquerda 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8B9B65-99B7-795E-D693-308258656F92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1374297">
+          <a:off x="7885230" y="3508335"/>
+          <a:ext cx="1091257" cy="160734"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>232172</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5A3C05-21BC-C8F6-F634-7FB41F257763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8941594" y="3792141"/>
+          <a:ext cx="398859" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601521</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38463</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Seta: para a Esquerda 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A424E44-9B98-447A-B00B-E815DEE0261A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="989273">
+          <a:off x="7888146" y="3740103"/>
+          <a:ext cx="651380" cy="160734"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="BD4B4B"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="9D3939"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>554831</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89295</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0128D8D-886C-44A3-B130-7BD828C0CDB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9663112" y="1191816"/>
+          <a:ext cx="748903" cy="397377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31055</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>172236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Seta: para a Esquerda 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7796D5-DCF4-4385-A6EF-73CF30543552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9139336" y="1345002"/>
+          <a:ext cx="504726" cy="160734"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357185</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>363140</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>89298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CaixaDeTexto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EFA4EF2-8240-1E96-CA2F-88A1F70C94C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000498" y="785812"/>
+          <a:ext cx="3042048" cy="446486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Calculando</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> intervalo com 90% de confiança (5% para cada lado da distribuição.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>478921</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CaixaDeTexto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FC68DA-8ADB-402F-8848-55758964FC7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2916621" y="3159672"/>
+          <a:ext cx="3060524" cy="446486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Calculando</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> intervalo com 90% de confiança (5% para cada lado da distribuição.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,20 +1116,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188AB63C-3612-487C-ADD8-62460D092800}">
-  <dimension ref="B2:O19"/>
+  <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I2" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -483,31 +1141,34 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -549,12 +1210,12 @@
         <f>(K4-J4)/2</f>
         <v>2.9258654462021347</v>
       </c>
-      <c r="O4">
+      <c r="N4">
         <f>L4/2</f>
         <v>1.4629327231010674</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5.5</v>
       </c>
@@ -570,7 +1231,7 @@
         <v>211.75</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>20</v>
       </c>
@@ -586,7 +1247,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>40</v>
       </c>
@@ -601,12 +1262,8 @@
         <f t="shared" si="1"/>
         <v>44800</v>
       </c>
-      <c r="O7">
-        <f>(I4*H4)/O4</f>
-        <v>20.493901531919185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>60</v>
       </c>
@@ -622,14 +1279,14 @@
         <v>18000</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O8" s="3">
-        <f>O7^2</f>
+        <f>((I4*H4)/N4)^2</f>
         <v>419.99999999999955</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>85</v>
       </c>
@@ -645,7 +1302,10 @@
         <v>21675</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10">
         <f>SUM(C4:C9)</f>
         <v>105</v>
@@ -659,114 +1319,119 @@
         <v>105086.75</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
       <c r="C11">
         <f>C10-1</f>
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <f>C16/C17</f>
+        <v>0.49056603773584906</v>
+      </c>
+      <c r="F16">
+        <v>1.645</v>
+      </c>
+      <c r="G16">
+        <f>SQRT((E16*(1-E16))/C17)</f>
+        <v>4.8555647938779513E-2</v>
+      </c>
+      <c r="H16">
+        <f>F16*G16</f>
+        <v>7.9874040859292297E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <f>E16-H16</f>
+        <v>0.41069199687655678</v>
+      </c>
+      <c r="J16" s="2">
+        <f>E16+H16</f>
+        <v>0.57044007859514134</v>
+      </c>
+      <c r="K16" s="2">
+        <f>(J16-I16)/2</f>
+        <v>7.9874040859292283E-2</v>
+      </c>
+      <c r="M16">
+        <f>K16/2</f>
+        <v>3.9937020429646142E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <f>C15+C16</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="M18">
+        <f>(F16/M16)^2</f>
+        <v>1696.6039886039896</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <f>C15/C16</f>
-        <v>0.49056603773584906</v>
-      </c>
-      <c r="E15">
-        <v>1.645</v>
-      </c>
-      <c r="F15">
-        <f>SQRT((D15*(1-D15))/C16)</f>
-        <v>4.8555647938779513E-2</v>
-      </c>
-      <c r="G15">
-        <f>E15*F15</f>
-        <v>7.9874040859292297E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <f>D15-G15</f>
-        <v>0.41069199687655678</v>
-      </c>
-      <c r="I15" s="2">
-        <f>D15+G15</f>
-        <v>0.57044007859514134</v>
-      </c>
-      <c r="J15" s="2">
-        <f>(I15-H15)/2</f>
-        <v>7.9874040859292283E-2</v>
-      </c>
-      <c r="M15">
-        <f>J15/2</f>
-        <v>3.9937020429646142E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f>C14+C15</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17">
-        <f>(E15/M15)^2</f>
-        <v>1696.6039886039896</v>
-      </c>
-    </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="3">
-        <f>M17*D15*(1-D15)</f>
+      <c r="M20" s="3">
+        <f>M18*E16*(1-E16)</f>
         <v>424.00000000000023</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>